--- a/Final_Mission/기획서/개발일정.xlsx
+++ b/Final_Mission/기획서/개발일정.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FIANL_MISSION\Final_Mission\Final_Mission\기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Final_Mission_Path2\Final_Mission_Path2\Final_Mission\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>일정</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>멀티플레이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>맵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>서버연동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>패키징</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -206,6 +198,10 @@
   </si>
   <si>
     <t>기본 일정 과 별개로 나선형 개발을 지향한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리소스 수집&amp;편집</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,7 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,8 +233,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,8 +285,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -314,13 +324,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -351,11 +407,14 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -363,14 +422,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,82 +757,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56709FC9-A38F-4F9D-8360-51E531C338A9}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="12" width="4.19921875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="B1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="11" t="s">
-        <v>41</v>
+      <c r="M2" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>20</v>
+      <c r="B3" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -774,17 +845,17 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="9">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4" s="12"/>
-      <c r="B4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="2"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -793,17 +864,17 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="9">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11" t="s">
-        <v>21</v>
+      <c r="A5" s="13"/>
+      <c r="B5" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -812,18 +883,20 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="9">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -831,19 +904,17 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="9">
-        <v>0.4</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>19</v>
+      <c r="A7" s="14"/>
+      <c r="B7" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -852,16 +923,16 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="9">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A8" s="13"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="1"/>
@@ -871,18 +942,20 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="9">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A9" s="13"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="B9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -890,19 +963,17 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="5"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -915,18 +986,18 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A11" s="15"/>
-      <c r="B11" s="11" t="s">
-        <v>40</v>
+      <c r="A11" s="12"/>
+      <c r="B11" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
       <c r="F11" s="5"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="9">
@@ -934,18 +1005,18 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A12" s="15"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="1"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="9">
@@ -953,204 +1024,202 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A13" s="15"/>
-      <c r="B13" s="11" t="s">
-        <v>32</v>
+      <c r="A13" s="12"/>
+      <c r="B13" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A14" s="15"/>
-      <c r="B14" s="11" t="s">
-        <v>34</v>
+      <c r="A14" s="12"/>
+      <c r="B14" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="1"/>
+      <c r="G14" s="5"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="L14" s="6"/>
       <c r="M14" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A15" s="15"/>
-      <c r="B15" s="11" t="s">
-        <v>35</v>
+      <c r="A15" s="12"/>
+      <c r="B15" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="5"/>
+      <c r="L15" s="1"/>
       <c r="M15" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A16" s="15"/>
-      <c r="B16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="F16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="6"/>
+      <c r="L16" s="1"/>
       <c r="M16" s="9">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A17" s="15"/>
-      <c r="B17" s="11" t="s">
-        <v>38</v>
+      <c r="A17" s="19"/>
+      <c r="B17" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
       <c r="L17" s="1"/>
       <c r="M17" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A18" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>36</v>
+      <c r="A18" s="19"/>
+      <c r="B18" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="8" t="s">
-        <v>43</v>
-      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
       <c r="L18" s="1"/>
       <c r="M18" s="9">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A19" s="14"/>
-      <c r="B19" s="11" t="s">
-        <v>16</v>
+      <c r="A19" s="19"/>
+      <c r="B19" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
       <c r="F19" s="8"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A20" s="14"/>
-      <c r="B20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
       <c r="E20" s="4"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="1"/>
+      <c r="G20" s="4"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="9">
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A21" s="14"/>
-      <c r="B21" s="11" t="s">
-        <v>37</v>
+    <row r="21" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="20"/>
+      <c r="B21" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="9">
-        <v>0</v>
-      </c>
+      <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A22" s="14"/>
-      <c r="B22" s="11" t="s">
-        <v>39</v>
+      <c r="A22" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="4"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="1"/>
       <c r="M22" s="9">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" s="16"/>
+      <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="1"/>
@@ -1169,7 +1238,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="1"/>
@@ -1178,9 +1247,9 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="9">
         <v>0</v>
@@ -1188,7 +1257,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="16"/>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="1"/>
@@ -1197,17 +1266,17 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="7"/>
+      <c r="I25" s="1"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
       <c r="M25" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A26" s="16"/>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="17"/>
+      <c r="B26" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="1"/>
@@ -1217,40 +1286,21 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="7"/>
+      <c r="J26" s="1"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
       <c r="M26" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A27" s="16"/>
-      <c r="B27" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="9">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A16:A21"/>
     <mergeCell ref="B1:L1"/>
-    <mergeCell ref="A10:A17"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
